--- a/roast-and-toast.xlsx
+++ b/roast-and-toast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auto1\go\src\github.com\eejai42\roast-and-toast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A0582-DCDD-480B-BFF7-9F385B64AD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFA690D-A69B-4E02-8E10-63F6C694274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Details" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Field</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Crispy</t>
-  </si>
-  <si>
-    <t>bob</t>
   </si>
 </sst>
 </file>
@@ -489,18 +486,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -508,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -516,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -524,7 +521,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -532,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -540,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -548,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -556,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -564,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -572,7 +569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -587,20 +584,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="42" style="1" customWidth="1"/>
     <col min="4" max="16384" width="24" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -611,7 +608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -622,7 +619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -633,7 +630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -642,11 +639,6 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/roast-and-toast.xlsx
+++ b/roast-and-toast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auto1\go\src\github.com\eejai42\roast-and-toast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFA690D-A69B-4E02-8E10-63F6C694274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95D8D3-9B27-45D4-819A-4A24B0463558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Details" sheetId="1" r:id="rId1"/>
@@ -486,18 +486,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="5" customWidth="1"/>
     <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -521,7 +521,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -561,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
